--- a/Rohan.xlsx
+++ b/Rohan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shipping_erp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F6685C-082B-425A-93A4-4EC74AE038AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7951DD7F-E83E-4691-9AF0-C9802A7D73C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="529">
   <si>
     <t xml:space="preserve">401/402 Raheja Plaza, 15/B Shah Industrial Estate, Off Andheri Link Road, Andheri (West), Mumbai 400 053. Maharashtra. India. </t>
   </si>
@@ -1691,6 +1691,24 @@
   </si>
   <si>
     <t>Refresher Training For Advance Fire Fighting (AFFR)</t>
+  </si>
+  <si>
+    <t>Kelkar College</t>
+  </si>
+  <si>
+    <t>Sharon EHS</t>
+  </si>
+  <si>
+    <t>Exmar</t>
+  </si>
+  <si>
+    <t>Vessel A</t>
+  </si>
+  <si>
+    <t>Owner A</t>
+  </si>
+  <si>
+    <t>Vseel B</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -2341,6 +2359,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -2348,7 +2386,95 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2358,7 +2484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2563,22 +2689,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2693,16 +2803,339 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2777,20 +3210,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2827,500 +3246,213 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3852,8 +3984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD7EDC8-E30E-4611-A81B-52DA85E83C43}">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:G40"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48:N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3878,12 +4010,12 @@
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
       <c r="P1" s="23"/>
-      <c r="Q1" s="113" t="s">
+      <c r="Q1" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="115"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="203"/>
     </row>
     <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="25"/>
@@ -3901,10 +4033,10 @@
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
       <c r="P2" s="27"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="118"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B3" s="28" t="s">
@@ -3924,10 +4056,10 @@
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="30"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="118"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="206"/>
     </row>
     <row r="4" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="28"/>
@@ -3947,171 +4079,171 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
       <c r="P4" s="30"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="118"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="206"/>
     </row>
     <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="210" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="121"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="211"/>
+      <c r="O5" s="211"/>
+      <c r="P5" s="212"/>
+      <c r="Q5" s="207"/>
+      <c r="R5" s="208"/>
+      <c r="S5" s="208"/>
+      <c r="T5" s="209"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="213" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="214"/>
+      <c r="N6" s="214"/>
+      <c r="O6" s="214"/>
+      <c r="P6" s="214"/>
+      <c r="Q6" s="214"/>
+      <c r="R6" s="214"/>
+      <c r="S6" s="214"/>
+      <c r="T6" s="214"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="129"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="216"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="216"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="216"/>
+      <c r="R7" s="216"/>
+      <c r="S7" s="216"/>
+      <c r="T7" s="217"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="128"/>
-      <c r="R8" s="128"/>
-      <c r="S8" s="128"/>
-      <c r="T8" s="129"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="216"/>
+      <c r="K8" s="216"/>
+      <c r="L8" s="216"/>
+      <c r="M8" s="216"/>
+      <c r="N8" s="216"/>
+      <c r="O8" s="216"/>
+      <c r="P8" s="216"/>
+      <c r="Q8" s="216"/>
+      <c r="R8" s="216"/>
+      <c r="S8" s="216"/>
+      <c r="T8" s="217"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="218" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="131"/>
-      <c r="T9" s="131"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="219"/>
+      <c r="L9" s="219"/>
+      <c r="M9" s="219"/>
+      <c r="N9" s="219"/>
+      <c r="O9" s="219"/>
+      <c r="P9" s="219"/>
+      <c r="Q9" s="219"/>
+      <c r="R9" s="219"/>
+      <c r="S9" s="219"/>
+      <c r="T9" s="219"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="145"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="228"/>
+      <c r="K10" s="228"/>
+      <c r="L10" s="228"/>
+      <c r="M10" s="228"/>
+      <c r="N10" s="228"/>
+      <c r="O10" s="228"/>
+      <c r="P10" s="228"/>
+      <c r="Q10" s="228"/>
+      <c r="R10" s="228"/>
+      <c r="S10" s="228"/>
+      <c r="T10" s="229"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="230" t="s">
         <v>488</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="148"/>
+      <c r="C11" s="231"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="231"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="231"/>
+      <c r="I11" s="231"/>
+      <c r="J11" s="231"/>
+      <c r="K11" s="231"/>
+      <c r="L11" s="231"/>
+      <c r="M11" s="231"/>
+      <c r="N11" s="231"/>
+      <c r="O11" s="231"/>
+      <c r="P11" s="231"/>
+      <c r="Q11" s="231"/>
+      <c r="R11" s="231"/>
+      <c r="S11" s="231"/>
+      <c r="T11" s="232"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
@@ -4148,72 +4280,72 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="149" t="s">
+      <c r="M13" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="149"/>
-      <c r="R13" s="149"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="150"/>
+      <c r="N13" s="233"/>
+      <c r="O13" s="233"/>
+      <c r="P13" s="233"/>
+      <c r="Q13" s="233"/>
+      <c r="R13" s="233"/>
+      <c r="S13" s="233"/>
+      <c r="T13" s="234"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="110" t="s">
+      <c r="C14" s="179"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="138" t="s">
+      <c r="I14" s="192"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="192"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="138"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="138"/>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="138"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="139"/>
+      <c r="N14" s="195"/>
+      <c r="O14" s="195"/>
+      <c r="P14" s="195"/>
+      <c r="Q14" s="195"/>
+      <c r="R14" s="195"/>
+      <c r="S14" s="195"/>
+      <c r="T14" s="196"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="224" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="110" t="s">
+      <c r="C15" s="225"/>
+      <c r="D15" s="225"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="225"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="138" t="s">
+      <c r="I15" s="192"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="192"/>
+      <c r="L15" s="192"/>
+      <c r="M15" s="195" t="s">
         <v>489</v>
       </c>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="139"/>
+      <c r="N15" s="195"/>
+      <c r="O15" s="195"/>
+      <c r="P15" s="195"/>
+      <c r="Q15" s="195"/>
+      <c r="R15" s="195"/>
+      <c r="S15" s="195"/>
+      <c r="T15" s="196"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -4223,34 +4355,34 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="110" t="s">
+      <c r="H16" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="138" t="s">
+      <c r="I16" s="192"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="192"/>
+      <c r="L16" s="192"/>
+      <c r="M16" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="138"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="138"/>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="138"/>
-      <c r="S16" s="138"/>
-      <c r="T16" s="139"/>
+      <c r="N16" s="195"/>
+      <c r="O16" s="195"/>
+      <c r="P16" s="195"/>
+      <c r="Q16" s="195"/>
+      <c r="R16" s="195"/>
+      <c r="S16" s="195"/>
+      <c r="T16" s="196"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="137"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="180"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -4267,31 +4399,31 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="224" t="s">
         <v>490</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="110" t="s">
+      <c r="C18" s="225"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="161" t="s">
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="161"/>
-      <c r="T18" s="162"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="186"/>
+      <c r="P18" s="186"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="186"/>
+      <c r="S18" s="186"/>
+      <c r="T18" s="187"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -4301,75 +4433,75 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="166" t="s">
+      <c r="H19" s="191" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="167">
+      <c r="I19" s="192"/>
+      <c r="J19" s="192"/>
+      <c r="K19" s="192"/>
+      <c r="L19" s="192"/>
+      <c r="M19" s="193">
         <v>31371</v>
       </c>
-      <c r="N19" s="167"/>
-      <c r="O19" s="167"/>
-      <c r="P19" s="167"/>
-      <c r="Q19" s="167"/>
-      <c r="R19" s="167"/>
-      <c r="S19" s="167"/>
-      <c r="T19" s="168"/>
+      <c r="N19" s="193"/>
+      <c r="O19" s="193"/>
+      <c r="P19" s="193"/>
+      <c r="Q19" s="193"/>
+      <c r="R19" s="193"/>
+      <c r="S19" s="193"/>
+      <c r="T19" s="194"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="110" t="s">
+      <c r="C20" s="189"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="190"/>
+      <c r="H20" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="138" t="s">
+      <c r="I20" s="192"/>
+      <c r="J20" s="192"/>
+      <c r="K20" s="192"/>
+      <c r="L20" s="192"/>
+      <c r="M20" s="195" t="s">
         <v>294</v>
       </c>
-      <c r="N20" s="138"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="138"/>
-      <c r="Q20" s="138"/>
-      <c r="R20" s="138"/>
-      <c r="S20" s="138"/>
-      <c r="T20" s="139"/>
+      <c r="N20" s="195"/>
+      <c r="O20" s="195"/>
+      <c r="P20" s="195"/>
+      <c r="Q20" s="195"/>
+      <c r="R20" s="195"/>
+      <c r="S20" s="195"/>
+      <c r="T20" s="196"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="133">
+      <c r="B21" s="221">
         <v>44652</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="136"/>
-      <c r="S21" s="136"/>
-      <c r="T21" s="137"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="222"/>
+      <c r="E21" s="222"/>
+      <c r="F21" s="222"/>
+      <c r="G21" s="223"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="192"/>
+      <c r="L21" s="192"/>
+      <c r="M21" s="179"/>
+      <c r="N21" s="179"/>
+      <c r="O21" s="179"/>
+      <c r="P21" s="179"/>
+      <c r="Q21" s="179"/>
+      <c r="R21" s="179"/>
+      <c r="S21" s="179"/>
+      <c r="T21" s="180"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
@@ -4417,171 +4549,171 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
-      <c r="B24" s="171" t="s">
+      <c r="B24" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="172"/>
-      <c r="L24" s="171" t="s">
+      <c r="C24" s="199"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="199"/>
+      <c r="K24" s="199"/>
+      <c r="L24" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="M24" s="172"/>
-      <c r="N24" s="172"/>
-      <c r="O24" s="172"/>
-      <c r="P24" s="172"/>
-      <c r="Q24" s="173"/>
-      <c r="R24" s="173"/>
-      <c r="S24" s="174"/>
-      <c r="T24" s="175"/>
+      <c r="M24" s="199"/>
+      <c r="N24" s="199"/>
+      <c r="O24" s="199"/>
+      <c r="P24" s="199"/>
+      <c r="Q24" s="200"/>
+      <c r="R24" s="200"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="136"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="164" t="s">
         <v>491</v>
       </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="125"/>
       <c r="K25" s="32"/>
-      <c r="L25" s="111" t="s">
+      <c r="L25" s="164" t="s">
         <v>491</v>
       </c>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="125"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="125"/>
       <c r="K26" s="32"/>
-      <c r="L26" s="111" t="s">
+      <c r="L26" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="125"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
-      <c r="B27" s="169" t="s">
+      <c r="B27" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
       <c r="G27" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="154">
+      <c r="H27" s="129">
         <v>400616</v>
       </c>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
       <c r="K27" s="32"/>
-      <c r="L27" s="169" t="s">
+      <c r="L27" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="M27" s="170"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="170"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="132"/>
       <c r="Q27" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="R27" s="132">
+      <c r="R27" s="220">
         <v>400616</v>
       </c>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
+      <c r="S27" s="220"/>
+      <c r="T27" s="220"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
-      <c r="B28" s="152" t="s">
+      <c r="B28" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="153"/>
-      <c r="D28" s="112">
+      <c r="C28" s="124"/>
+      <c r="D28" s="125">
         <v>99324942394</v>
       </c>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="129"/>
       <c r="K28" s="32"/>
-      <c r="L28" s="155" t="s">
+      <c r="L28" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="156"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="154"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="154"/>
-      <c r="T28" s="157"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="183"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
-      <c r="B29" s="158" t="s">
+      <c r="B29" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="159"/>
-      <c r="D29" s="112" t="s">
+      <c r="C29" s="185"/>
+      <c r="D29" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
       <c r="K29" s="34"/>
-      <c r="L29" s="158" t="s">
+      <c r="L29" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="159"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="160"/>
+      <c r="M29" s="185"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="125"/>
+      <c r="S29" s="125"/>
+      <c r="T29" s="126"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
@@ -4607,27 +4739,27 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
-      <c r="B31" s="182" t="s">
+      <c r="B31" s="168" t="s">
         <v>492</v>
       </c>
-      <c r="C31" s="183"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="184"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="184"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="184"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="184"/>
-      <c r="S31" s="184"/>
-      <c r="T31" s="185"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="169"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="170"/>
+      <c r="S31" s="170"/>
+      <c r="T31" s="171"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
@@ -4653,159 +4785,159 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
-      <c r="B33" s="186"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="187" t="s">
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="188"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="187" t="s">
+      <c r="F33" s="151"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="188"/>
-      <c r="J33" s="188"/>
-      <c r="K33" s="189"/>
-      <c r="L33" s="187" t="s">
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="M33" s="188"/>
-      <c r="N33" s="188"/>
-      <c r="O33" s="187" t="s">
+      <c r="M33" s="151"/>
+      <c r="N33" s="151"/>
+      <c r="O33" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="P33" s="188"/>
-      <c r="Q33" s="189"/>
-      <c r="R33" s="187" t="s">
+      <c r="P33" s="151"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="S33" s="188"/>
+      <c r="S33" s="151"/>
       <c r="T33" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="177" t="s">
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177"/>
-      <c r="H34" s="178">
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="161">
         <v>40199</v>
       </c>
-      <c r="I34" s="178"/>
-      <c r="J34" s="178"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="179" t="s">
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="M34" s="179"/>
-      <c r="N34" s="179"/>
-      <c r="O34" s="178">
+      <c r="M34" s="110"/>
+      <c r="N34" s="110"/>
+      <c r="O34" s="161">
         <v>43851</v>
       </c>
-      <c r="P34" s="178"/>
-      <c r="Q34" s="178"/>
-      <c r="R34" s="180"/>
-      <c r="S34" s="181"/>
-      <c r="T34" s="109"/>
+      <c r="P34" s="161"/>
+      <c r="Q34" s="161"/>
+      <c r="R34" s="166"/>
+      <c r="S34" s="167"/>
+      <c r="T34" s="105"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
-      <c r="B35" s="176" t="s">
+      <c r="B35" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="177" t="s">
+      <c r="C35" s="140"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="177"/>
-      <c r="G35" s="177"/>
-      <c r="H35" s="178">
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="161">
         <v>40199</v>
       </c>
-      <c r="I35" s="178"/>
-      <c r="J35" s="178"/>
-      <c r="K35" s="178"/>
-      <c r="L35" s="179" t="s">
+      <c r="I35" s="161"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="110" t="s">
         <v>493</v>
       </c>
-      <c r="M35" s="179"/>
-      <c r="N35" s="179"/>
-      <c r="O35" s="178">
+      <c r="M35" s="110"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="161">
         <v>43851</v>
       </c>
-      <c r="P35" s="178"/>
-      <c r="Q35" s="178"/>
-      <c r="R35" s="190" t="s">
+      <c r="P35" s="161"/>
+      <c r="Q35" s="161"/>
+      <c r="R35" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="S35" s="191"/>
-      <c r="T35" s="192"/>
+      <c r="S35" s="174"/>
+      <c r="T35" s="175"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
-      <c r="B36" s="176" t="s">
+      <c r="B36" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="177" t="s">
+      <c r="C36" s="140"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="177"/>
-      <c r="G36" s="177"/>
-      <c r="H36" s="178">
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="161">
         <v>40199</v>
       </c>
-      <c r="I36" s="178"/>
-      <c r="J36" s="178"/>
-      <c r="K36" s="178"/>
-      <c r="L36" s="179" t="s">
+      <c r="I36" s="161"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="110" t="s">
         <v>493</v>
       </c>
-      <c r="M36" s="179"/>
-      <c r="N36" s="179"/>
-      <c r="O36" s="178">
+      <c r="M36" s="110"/>
+      <c r="N36" s="110"/>
+      <c r="O36" s="161">
         <v>43851</v>
       </c>
-      <c r="P36" s="178"/>
-      <c r="Q36" s="178"/>
-      <c r="R36" s="193"/>
-      <c r="S36" s="193"/>
-      <c r="T36" s="194"/>
+      <c r="P36" s="161"/>
+      <c r="Q36" s="161"/>
+      <c r="R36" s="176"/>
+      <c r="S36" s="176"/>
+      <c r="T36" s="177"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
-      <c r="B37" s="176" t="s">
+      <c r="B37" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="199"/>
-      <c r="F37" s="199"/>
-      <c r="G37" s="199"/>
-      <c r="H37" s="178"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="178"/>
-      <c r="K37" s="178"/>
-      <c r="L37" s="179"/>
-      <c r="M37" s="179"/>
-      <c r="N37" s="179"/>
-      <c r="O37" s="178"/>
-      <c r="P37" s="178"/>
-      <c r="Q37" s="178"/>
-      <c r="R37" s="195"/>
-      <c r="S37" s="195"/>
-      <c r="T37" s="195"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="163"/>
+      <c r="F37" s="163"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="161"/>
+      <c r="P37" s="161"/>
+      <c r="Q37" s="161"/>
+      <c r="R37" s="162"/>
+      <c r="S37" s="162"/>
+      <c r="T37" s="162"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
@@ -4831,191 +4963,191 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
-      <c r="B39" s="196" t="s">
+      <c r="B39" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="197"/>
-      <c r="D39" s="198"/>
-      <c r="E39" s="187" t="s">
+      <c r="C39" s="149"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="188"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="187" t="s">
+      <c r="F39" s="151"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="188"/>
-      <c r="J39" s="188"/>
-      <c r="K39" s="189"/>
-      <c r="L39" s="187" t="s">
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="M39" s="188"/>
-      <c r="N39" s="189"/>
-      <c r="O39" s="187" t="s">
+      <c r="M39" s="151"/>
+      <c r="N39" s="122"/>
+      <c r="O39" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="P39" s="188"/>
-      <c r="Q39" s="189"/>
-      <c r="R39" s="187" t="s">
+      <c r="P39" s="151"/>
+      <c r="Q39" s="122"/>
+      <c r="R39" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="S39" s="188"/>
-      <c r="T39" s="189"/>
+      <c r="S39" s="151"/>
+      <c r="T39" s="122"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
-      <c r="B40" s="176" t="s">
+      <c r="B40" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="200">
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="155">
         <v>4324324</v>
       </c>
-      <c r="F40" s="201"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="203">
+      <c r="F40" s="156"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="144">
         <v>40199</v>
       </c>
-      <c r="I40" s="204"/>
-      <c r="J40" s="204"/>
-      <c r="K40" s="205"/>
-      <c r="L40" s="206" t="s">
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="146"/>
+      <c r="L40" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="M40" s="207"/>
-      <c r="N40" s="208"/>
-      <c r="O40" s="209">
+      <c r="M40" s="159"/>
+      <c r="N40" s="160"/>
+      <c r="O40" s="117">
         <v>43851</v>
       </c>
-      <c r="P40" s="210"/>
-      <c r="Q40" s="211"/>
-      <c r="R40" s="212" t="s">
+      <c r="P40" s="147"/>
+      <c r="Q40" s="118"/>
+      <c r="R40" s="114" t="s">
         <v>512</v>
       </c>
-      <c r="S40" s="213"/>
-      <c r="T40" s="214"/>
+      <c r="S40" s="134"/>
+      <c r="T40" s="115"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
-      <c r="B41" s="176" t="s">
+      <c r="B41" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="200"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="202"/>
-      <c r="H41" s="203"/>
-      <c r="I41" s="204"/>
-      <c r="J41" s="204"/>
-      <c r="K41" s="205"/>
-      <c r="L41" s="206"/>
-      <c r="M41" s="207"/>
-      <c r="N41" s="208"/>
-      <c r="O41" s="209"/>
-      <c r="P41" s="210"/>
-      <c r="Q41" s="211"/>
-      <c r="R41" s="212"/>
-      <c r="S41" s="213"/>
-      <c r="T41" s="214"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="146"/>
+      <c r="L41" s="158"/>
+      <c r="M41" s="159"/>
+      <c r="N41" s="160"/>
+      <c r="O41" s="117"/>
+      <c r="P41" s="147"/>
+      <c r="Q41" s="118"/>
+      <c r="R41" s="114"/>
+      <c r="S41" s="134"/>
+      <c r="T41" s="115"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
-      <c r="B42" s="176" t="s">
+      <c r="B42" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
-      <c r="E42" s="200"/>
-      <c r="F42" s="201"/>
-      <c r="G42" s="202"/>
-      <c r="H42" s="203"/>
-      <c r="I42" s="204"/>
-      <c r="J42" s="204"/>
-      <c r="K42" s="205"/>
-      <c r="L42" s="206"/>
-      <c r="M42" s="207"/>
-      <c r="N42" s="208"/>
-      <c r="O42" s="209"/>
-      <c r="P42" s="210"/>
-      <c r="Q42" s="211"/>
-      <c r="R42" s="212"/>
-      <c r="S42" s="213"/>
-      <c r="T42" s="214"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="144"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="158"/>
+      <c r="M42" s="159"/>
+      <c r="N42" s="160"/>
+      <c r="O42" s="117"/>
+      <c r="P42" s="147"/>
+      <c r="Q42" s="118"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="134"/>
+      <c r="T42" s="115"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
-      <c r="E43" s="200"/>
-      <c r="F43" s="201"/>
-      <c r="G43" s="202"/>
-      <c r="H43" s="203"/>
-      <c r="I43" s="204"/>
-      <c r="J43" s="204"/>
-      <c r="K43" s="205"/>
-      <c r="L43" s="206"/>
-      <c r="M43" s="207"/>
-      <c r="N43" s="208"/>
-      <c r="O43" s="209"/>
-      <c r="P43" s="210"/>
-      <c r="Q43" s="211"/>
-      <c r="R43" s="212"/>
-      <c r="S43" s="213"/>
-      <c r="T43" s="214"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="146"/>
+      <c r="L43" s="158"/>
+      <c r="M43" s="159"/>
+      <c r="N43" s="160"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="147"/>
+      <c r="Q43" s="118"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="134"/>
+      <c r="T43" s="115"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
-      <c r="B44" s="176" t="s">
+      <c r="B44" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
-      <c r="E44" s="200"/>
-      <c r="F44" s="201"/>
-      <c r="G44" s="202"/>
-      <c r="H44" s="203"/>
-      <c r="I44" s="204"/>
-      <c r="J44" s="204"/>
-      <c r="K44" s="205"/>
-      <c r="L44" s="206"/>
-      <c r="M44" s="207"/>
-      <c r="N44" s="208"/>
-      <c r="O44" s="209"/>
-      <c r="P44" s="210"/>
-      <c r="Q44" s="211"/>
-      <c r="R44" s="212"/>
-      <c r="S44" s="213"/>
-      <c r="T44" s="214"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="158"/>
+      <c r="M44" s="159"/>
+      <c r="N44" s="160"/>
+      <c r="O44" s="117"/>
+      <c r="P44" s="147"/>
+      <c r="Q44" s="118"/>
+      <c r="R44" s="114"/>
+      <c r="S44" s="134"/>
+      <c r="T44" s="115"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
-      <c r="B45" s="176" t="s">
+      <c r="B45" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
-      <c r="E45" s="200"/>
-      <c r="F45" s="201"/>
-      <c r="G45" s="202"/>
-      <c r="H45" s="203"/>
-      <c r="I45" s="204"/>
-      <c r="J45" s="204"/>
-      <c r="K45" s="205"/>
-      <c r="L45" s="206"/>
-      <c r="M45" s="207"/>
-      <c r="N45" s="208"/>
-      <c r="O45" s="209"/>
-      <c r="P45" s="210"/>
-      <c r="Q45" s="211"/>
-      <c r="R45" s="212"/>
-      <c r="S45" s="213"/>
-      <c r="T45" s="214"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="155"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="145"/>
+      <c r="J45" s="145"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="158"/>
+      <c r="M45" s="159"/>
+      <c r="N45" s="160"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="147"/>
+      <c r="Q45" s="118"/>
+      <c r="R45" s="114"/>
+      <c r="S45" s="134"/>
+      <c r="T45" s="115"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
@@ -5041,191 +5173,191 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
-      <c r="B47" s="196" t="s">
+      <c r="B47" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="197"/>
-      <c r="D47" s="198"/>
-      <c r="E47" s="187" t="s">
+      <c r="C47" s="149"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="188"/>
-      <c r="G47" s="189"/>
-      <c r="H47" s="187" t="s">
+      <c r="F47" s="151"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="I47" s="188"/>
-      <c r="J47" s="188"/>
-      <c r="K47" s="189"/>
-      <c r="L47" s="187" t="s">
+      <c r="I47" s="151"/>
+      <c r="J47" s="151"/>
+      <c r="K47" s="122"/>
+      <c r="L47" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="M47" s="188"/>
-      <c r="N47" s="189"/>
-      <c r="O47" s="187" t="s">
+      <c r="M47" s="151"/>
+      <c r="N47" s="122"/>
+      <c r="O47" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="P47" s="188"/>
-      <c r="Q47" s="189"/>
-      <c r="R47" s="187" t="s">
+      <c r="P47" s="151"/>
+      <c r="Q47" s="122"/>
+      <c r="R47" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="S47" s="188"/>
-      <c r="T47" s="189"/>
+      <c r="S47" s="151"/>
+      <c r="T47" s="122"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
-      <c r="B48" s="218" t="s">
+      <c r="B48" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="219"/>
-      <c r="D48" s="220"/>
-      <c r="E48" s="212" t="s">
+      <c r="C48" s="153"/>
+      <c r="D48" s="154"/>
+      <c r="E48" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="213"/>
-      <c r="G48" s="214"/>
-      <c r="H48" s="215">
+      <c r="F48" s="134"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="141">
         <v>768678</v>
       </c>
-      <c r="I48" s="216"/>
-      <c r="J48" s="216"/>
-      <c r="K48" s="217"/>
-      <c r="L48" s="203">
+      <c r="I48" s="142"/>
+      <c r="J48" s="142"/>
+      <c r="K48" s="143"/>
+      <c r="L48" s="144">
         <v>40199</v>
       </c>
-      <c r="M48" s="204"/>
-      <c r="N48" s="205"/>
-      <c r="O48" s="212" t="s">
+      <c r="M48" s="145"/>
+      <c r="N48" s="146"/>
+      <c r="O48" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="P48" s="213"/>
-      <c r="Q48" s="214"/>
-      <c r="R48" s="209">
+      <c r="P48" s="134"/>
+      <c r="Q48" s="115"/>
+      <c r="R48" s="117">
         <v>43851</v>
       </c>
-      <c r="S48" s="210"/>
-      <c r="T48" s="211"/>
+      <c r="S48" s="147"/>
+      <c r="T48" s="118"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
-      <c r="B49" s="176" t="s">
+      <c r="B49" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="176"/>
-      <c r="D49" s="176"/>
-      <c r="E49" s="212"/>
-      <c r="F49" s="213"/>
-      <c r="G49" s="214"/>
-      <c r="H49" s="215"/>
-      <c r="I49" s="216"/>
-      <c r="J49" s="216"/>
-      <c r="K49" s="217"/>
-      <c r="L49" s="203"/>
-      <c r="M49" s="204"/>
-      <c r="N49" s="205"/>
-      <c r="O49" s="212"/>
-      <c r="P49" s="213"/>
-      <c r="Q49" s="214"/>
-      <c r="R49" s="209"/>
-      <c r="S49" s="210"/>
-      <c r="T49" s="211"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="141"/>
+      <c r="I49" s="142"/>
+      <c r="J49" s="142"/>
+      <c r="K49" s="143"/>
+      <c r="L49" s="144"/>
+      <c r="M49" s="145"/>
+      <c r="N49" s="146"/>
+      <c r="O49" s="114"/>
+      <c r="P49" s="134"/>
+      <c r="Q49" s="115"/>
+      <c r="R49" s="117"/>
+      <c r="S49" s="147"/>
+      <c r="T49" s="118"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
-      <c r="B50" s="176" t="s">
+      <c r="B50" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="176"/>
-      <c r="D50" s="176"/>
-      <c r="E50" s="212"/>
-      <c r="F50" s="213"/>
-      <c r="G50" s="214"/>
-      <c r="H50" s="215"/>
-      <c r="I50" s="216"/>
-      <c r="J50" s="216"/>
-      <c r="K50" s="217"/>
-      <c r="L50" s="203"/>
-      <c r="M50" s="204"/>
-      <c r="N50" s="205"/>
-      <c r="O50" s="212"/>
-      <c r="P50" s="213"/>
-      <c r="Q50" s="214"/>
-      <c r="R50" s="209"/>
-      <c r="S50" s="210"/>
-      <c r="T50" s="211"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="142"/>
+      <c r="J50" s="142"/>
+      <c r="K50" s="143"/>
+      <c r="L50" s="144"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="146"/>
+      <c r="O50" s="114"/>
+      <c r="P50" s="134"/>
+      <c r="Q50" s="115"/>
+      <c r="R50" s="117"/>
+      <c r="S50" s="147"/>
+      <c r="T50" s="118"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
-      <c r="B51" s="176" t="s">
+      <c r="B51" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
-      <c r="E51" s="212"/>
-      <c r="F51" s="213"/>
-      <c r="G51" s="214"/>
-      <c r="H51" s="215"/>
-      <c r="I51" s="216"/>
-      <c r="J51" s="216"/>
-      <c r="K51" s="217"/>
-      <c r="L51" s="203"/>
-      <c r="M51" s="204"/>
-      <c r="N51" s="205"/>
-      <c r="O51" s="212"/>
-      <c r="P51" s="213"/>
-      <c r="Q51" s="214"/>
-      <c r="R51" s="209"/>
-      <c r="S51" s="210"/>
-      <c r="T51" s="211"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="141"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="143"/>
+      <c r="L51" s="144"/>
+      <c r="M51" s="145"/>
+      <c r="N51" s="146"/>
+      <c r="O51" s="114"/>
+      <c r="P51" s="134"/>
+      <c r="Q51" s="115"/>
+      <c r="R51" s="117"/>
+      <c r="S51" s="147"/>
+      <c r="T51" s="118"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
-      <c r="B52" s="176" t="s">
+      <c r="B52" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="212"/>
-      <c r="F52" s="213"/>
-      <c r="G52" s="214"/>
-      <c r="H52" s="215"/>
-      <c r="I52" s="216"/>
-      <c r="J52" s="216"/>
-      <c r="K52" s="217"/>
-      <c r="L52" s="203"/>
-      <c r="M52" s="204"/>
-      <c r="N52" s="205"/>
-      <c r="O52" s="212"/>
-      <c r="P52" s="213"/>
-      <c r="Q52" s="214"/>
-      <c r="R52" s="209"/>
-      <c r="S52" s="210"/>
-      <c r="T52" s="211"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="134"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="141"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="142"/>
+      <c r="K52" s="143"/>
+      <c r="L52" s="144"/>
+      <c r="M52" s="145"/>
+      <c r="N52" s="146"/>
+      <c r="O52" s="114"/>
+      <c r="P52" s="134"/>
+      <c r="Q52" s="115"/>
+      <c r="R52" s="117"/>
+      <c r="S52" s="147"/>
+      <c r="T52" s="118"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
-      <c r="B53" s="176" t="s">
+      <c r="B53" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
-      <c r="E53" s="212"/>
-      <c r="F53" s="213"/>
-      <c r="G53" s="214"/>
-      <c r="H53" s="215"/>
-      <c r="I53" s="216"/>
-      <c r="J53" s="216"/>
-      <c r="K53" s="217"/>
-      <c r="L53" s="203"/>
-      <c r="M53" s="204"/>
-      <c r="N53" s="205"/>
-      <c r="O53" s="212"/>
-      <c r="P53" s="213"/>
-      <c r="Q53" s="214"/>
-      <c r="R53" s="209"/>
-      <c r="S53" s="210"/>
-      <c r="T53" s="211"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="141"/>
+      <c r="I53" s="142"/>
+      <c r="J53" s="142"/>
+      <c r="K53" s="143"/>
+      <c r="L53" s="144"/>
+      <c r="M53" s="145"/>
+      <c r="N53" s="146"/>
+      <c r="O53" s="114"/>
+      <c r="P53" s="134"/>
+      <c r="Q53" s="115"/>
+      <c r="R53" s="117"/>
+      <c r="S53" s="147"/>
+      <c r="T53" s="118"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
@@ -5255,131 +5387,131 @@
         <v>55</v>
       </c>
       <c r="C55" s="41"/>
-      <c r="D55" s="213" t="s">
+      <c r="D55" s="134" t="s">
         <v>495</v>
       </c>
-      <c r="E55" s="213"/>
-      <c r="F55" s="213"/>
-      <c r="G55" s="213"/>
-      <c r="H55" s="213"/>
-      <c r="I55" s="213"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134"/>
+      <c r="G55" s="134"/>
+      <c r="H55" s="134"/>
+      <c r="I55" s="134"/>
       <c r="J55" s="42"/>
       <c r="K55" s="43"/>
       <c r="L55" s="41"/>
       <c r="M55" s="41"/>
       <c r="N55" s="41"/>
-      <c r="O55" s="174"/>
-      <c r="P55" s="174"/>
-      <c r="Q55" s="174"/>
-      <c r="R55" s="174"/>
-      <c r="S55" s="174"/>
-      <c r="T55" s="175"/>
+      <c r="O55" s="135"/>
+      <c r="P55" s="135"/>
+      <c r="Q55" s="135"/>
+      <c r="R55" s="135"/>
+      <c r="S55" s="135"/>
+      <c r="T55" s="136"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="226" t="s">
+      <c r="B56" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="227"/>
-      <c r="D56" s="112" t="s">
+      <c r="C56" s="138"/>
+      <c r="D56" s="125" t="s">
         <v>494</v>
       </c>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="112"/>
-      <c r="K56" s="112"/>
-      <c r="L56" s="228" t="s">
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="125"/>
+      <c r="L56" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="M56" s="228"/>
-      <c r="N56" s="228"/>
-      <c r="O56" s="112" t="s">
+      <c r="M56" s="139"/>
+      <c r="N56" s="139"/>
+      <c r="O56" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="P56" s="112"/>
-      <c r="Q56" s="112"/>
-      <c r="R56" s="112"/>
-      <c r="S56" s="112"/>
-      <c r="T56" s="160"/>
+      <c r="P56" s="125"/>
+      <c r="Q56" s="125"/>
+      <c r="R56" s="125"/>
+      <c r="S56" s="125"/>
+      <c r="T56" s="126"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="152" t="s">
+      <c r="B57" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="153"/>
-      <c r="D57" s="112" t="s">
+      <c r="C57" s="124"/>
+      <c r="D57" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="112"/>
-      <c r="K57" s="112"/>
-      <c r="L57" s="112"/>
-      <c r="M57" s="112"/>
-      <c r="N57" s="112"/>
-      <c r="O57" s="112"/>
-      <c r="P57" s="112"/>
-      <c r="Q57" s="112"/>
-      <c r="R57" s="112"/>
-      <c r="S57" s="112"/>
-      <c r="T57" s="160"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="125"/>
+      <c r="K57" s="125"/>
+      <c r="L57" s="125"/>
+      <c r="M57" s="125"/>
+      <c r="N57" s="125"/>
+      <c r="O57" s="125"/>
+      <c r="P57" s="125"/>
+      <c r="Q57" s="125"/>
+      <c r="R57" s="125"/>
+      <c r="S57" s="125"/>
+      <c r="T57" s="126"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="221"/>
-      <c r="C58" s="222"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="154"/>
-      <c r="G58" s="154"/>
-      <c r="H58" s="154"/>
-      <c r="I58" s="154"/>
-      <c r="J58" s="154"/>
-      <c r="K58" s="154"/>
-      <c r="L58" s="154"/>
-      <c r="M58" s="154"/>
-      <c r="N58" s="154"/>
-      <c r="O58" s="154"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="129"/>
+      <c r="F58" s="129"/>
+      <c r="G58" s="129"/>
+      <c r="H58" s="129"/>
+      <c r="I58" s="129"/>
+      <c r="J58" s="129"/>
+      <c r="K58" s="129"/>
+      <c r="L58" s="129"/>
+      <c r="M58" s="129"/>
+      <c r="N58" s="129"/>
+      <c r="O58" s="129"/>
       <c r="P58" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="Q58" s="223">
+      <c r="Q58" s="130">
         <v>400616</v>
       </c>
-      <c r="R58" s="223"/>
-      <c r="S58" s="223"/>
-      <c r="T58" s="224"/>
+      <c r="R58" s="130"/>
+      <c r="S58" s="130"/>
+      <c r="T58" s="131"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="44"/>
       <c r="C59" s="45"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="154"/>
-      <c r="G59" s="154"/>
-      <c r="H59" s="154"/>
-      <c r="I59" s="154"/>
-      <c r="J59" s="154"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="129"/>
+      <c r="F59" s="129"/>
+      <c r="G59" s="129"/>
+      <c r="H59" s="129"/>
+      <c r="I59" s="129"/>
+      <c r="J59" s="129"/>
       <c r="K59" s="46"/>
       <c r="L59" s="47" t="s">
         <v>61</v>
       </c>
       <c r="M59" s="47"/>
-      <c r="N59" s="170"/>
-      <c r="O59" s="170"/>
-      <c r="P59" s="170"/>
-      <c r="Q59" s="170"/>
-      <c r="R59" s="170"/>
-      <c r="S59" s="170"/>
-      <c r="T59" s="225"/>
+      <c r="N59" s="132"/>
+      <c r="O59" s="132"/>
+      <c r="P59" s="132"/>
+      <c r="Q59" s="132"/>
+      <c r="R59" s="132"/>
+      <c r="S59" s="132"/>
+      <c r="T59" s="133"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
@@ -5410,192 +5542,192 @@
       <c r="B61" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="187" t="s">
+      <c r="C61" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="189"/>
+      <c r="D61" s="122"/>
       <c r="E61" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="F61" s="229" t="s">
+      <c r="F61" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="G61" s="229"/>
-      <c r="H61" s="229" t="s">
+      <c r="G61" s="120"/>
+      <c r="H61" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="I61" s="229"/>
-      <c r="J61" s="229"/>
-      <c r="K61" s="187" t="s">
+      <c r="I61" s="120"/>
+      <c r="J61" s="120"/>
+      <c r="K61" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="L61" s="189"/>
-      <c r="M61" s="187" t="s">
+      <c r="L61" s="122"/>
+      <c r="M61" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="N61" s="189"/>
-      <c r="O61" s="187" t="s">
+      <c r="N61" s="122"/>
+      <c r="O61" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="P61" s="189"/>
-      <c r="Q61" s="229" t="s">
+      <c r="P61" s="122"/>
+      <c r="Q61" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="R61" s="229"/>
-      <c r="S61" s="229" t="s">
+      <c r="R61" s="120"/>
+      <c r="S61" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="T61" s="229"/>
+      <c r="T61" s="120"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
-      <c r="B62" s="108">
+      <c r="B62" s="104">
         <v>1</v>
       </c>
-      <c r="C62" s="212" t="s">
+      <c r="C62" s="114" t="s">
         <v>494</v>
       </c>
-      <c r="D62" s="214"/>
+      <c r="D62" s="115"/>
       <c r="E62" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="230">
+      <c r="F62" s="116">
         <v>40199</v>
       </c>
-      <c r="G62" s="230"/>
-      <c r="H62" s="231" t="s">
+      <c r="G62" s="116"/>
+      <c r="H62" s="119" t="s">
         <v>515</v>
       </c>
-      <c r="I62" s="231"/>
-      <c r="J62" s="231"/>
-      <c r="K62" s="209">
+      <c r="I62" s="119"/>
+      <c r="J62" s="119"/>
+      <c r="K62" s="117">
         <v>40199</v>
       </c>
-      <c r="L62" s="211"/>
-      <c r="M62" s="209" t="s">
+      <c r="L62" s="118"/>
+      <c r="M62" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="N62" s="211"/>
-      <c r="O62" s="209">
+      <c r="N62" s="118"/>
+      <c r="O62" s="117">
         <v>40199</v>
       </c>
-      <c r="P62" s="211"/>
-      <c r="Q62" s="179" t="s">
+      <c r="P62" s="118"/>
+      <c r="Q62" s="110" t="s">
         <v>490</v>
       </c>
-      <c r="R62" s="179"/>
-      <c r="S62" s="179" t="s">
+      <c r="R62" s="110"/>
+      <c r="S62" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="T62" s="179"/>
+      <c r="T62" s="110"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
-      <c r="B63" s="108">
+      <c r="B63" s="104">
         <v>2</v>
       </c>
-      <c r="C63" s="212" t="s">
+      <c r="C63" s="114" t="s">
         <v>513</v>
       </c>
-      <c r="D63" s="214"/>
+      <c r="D63" s="115"/>
       <c r="E63" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="F63" s="230">
+      <c r="F63" s="116">
         <v>42391</v>
       </c>
-      <c r="G63" s="230"/>
-      <c r="H63" s="231" t="s">
+      <c r="G63" s="116"/>
+      <c r="H63" s="119" t="s">
         <v>516</v>
       </c>
-      <c r="I63" s="231"/>
-      <c r="J63" s="231"/>
-      <c r="K63" s="209">
+      <c r="I63" s="119"/>
+      <c r="J63" s="119"/>
+      <c r="K63" s="117">
         <v>40200</v>
       </c>
-      <c r="L63" s="211"/>
-      <c r="M63" s="209" t="s">
+      <c r="L63" s="118"/>
+      <c r="M63" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="N63" s="211"/>
-      <c r="O63" s="209">
+      <c r="N63" s="118"/>
+      <c r="O63" s="117">
         <v>47505</v>
       </c>
-      <c r="P63" s="211"/>
-      <c r="Q63" s="179" t="s">
+      <c r="P63" s="118"/>
+      <c r="Q63" s="110" t="s">
         <v>490</v>
       </c>
-      <c r="R63" s="179"/>
-      <c r="S63" s="179" t="s">
+      <c r="R63" s="110"/>
+      <c r="S63" s="110" t="s">
         <v>490</v>
       </c>
-      <c r="T63" s="179"/>
+      <c r="T63" s="110"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
-      <c r="B64" s="108">
+      <c r="B64" s="104">
         <v>3</v>
       </c>
-      <c r="C64" s="212" t="s">
+      <c r="C64" s="114" t="s">
         <v>514</v>
       </c>
-      <c r="D64" s="214"/>
+      <c r="D64" s="115"/>
       <c r="E64" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="F64" s="230">
+      <c r="F64" s="116">
         <v>42758</v>
       </c>
-      <c r="G64" s="230"/>
-      <c r="H64" s="231" t="s">
+      <c r="G64" s="116"/>
+      <c r="H64" s="119" t="s">
         <v>517</v>
       </c>
-      <c r="I64" s="231"/>
-      <c r="J64" s="231"/>
-      <c r="K64" s="209">
+      <c r="I64" s="119"/>
+      <c r="J64" s="119"/>
+      <c r="K64" s="117">
         <v>40201</v>
       </c>
-      <c r="L64" s="211"/>
-      <c r="M64" s="209" t="s">
+      <c r="L64" s="118"/>
+      <c r="M64" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="N64" s="211"/>
-      <c r="O64" s="209">
+      <c r="N64" s="118"/>
+      <c r="O64" s="117">
         <v>47871</v>
       </c>
-      <c r="P64" s="211"/>
-      <c r="Q64" s="179" t="s">
+      <c r="P64" s="118"/>
+      <c r="Q64" s="110" t="s">
         <v>490</v>
       </c>
-      <c r="R64" s="179"/>
-      <c r="S64" s="179" t="s">
+      <c r="R64" s="110"/>
+      <c r="S64" s="110" t="s">
         <v>490</v>
       </c>
-      <c r="T64" s="179"/>
+      <c r="T64" s="110"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
-      <c r="B65" s="108">
+      <c r="B65" s="104">
         <v>4</v>
       </c>
-      <c r="C65" s="212"/>
-      <c r="D65" s="214"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="115"/>
       <c r="E65" s="51"/>
-      <c r="F65" s="230"/>
-      <c r="G65" s="230"/>
-      <c r="H65" s="179"/>
-      <c r="I65" s="179"/>
-      <c r="J65" s="179"/>
-      <c r="K65" s="209"/>
-      <c r="L65" s="211"/>
-      <c r="M65" s="209"/>
-      <c r="N65" s="211"/>
-      <c r="O65" s="212"/>
-      <c r="P65" s="214"/>
-      <c r="Q65" s="179"/>
-      <c r="R65" s="179"/>
-      <c r="S65" s="179"/>
-      <c r="T65" s="179"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="110"/>
+      <c r="I65" s="110"/>
+      <c r="J65" s="110"/>
+      <c r="K65" s="117"/>
+      <c r="L65" s="118"/>
+      <c r="M65" s="117"/>
+      <c r="N65" s="118"/>
+      <c r="O65" s="114"/>
+      <c r="P65" s="115"/>
+      <c r="Q65" s="110"/>
+      <c r="R65" s="110"/>
+      <c r="S65" s="110"/>
+      <c r="T65" s="110"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
@@ -5621,176 +5753,78 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
-      <c r="B67" s="232" t="s">
+      <c r="B67" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="233"/>
-      <c r="D67" s="233"/>
-      <c r="E67" s="233"/>
-      <c r="F67" s="233"/>
-      <c r="G67" s="233"/>
-      <c r="H67" s="233"/>
-      <c r="I67" s="233"/>
-      <c r="J67" s="233"/>
-      <c r="K67" s="233"/>
-      <c r="L67" s="233"/>
-      <c r="M67" s="233"/>
-      <c r="N67" s="233"/>
-      <c r="O67" s="233"/>
-      <c r="P67" s="233"/>
-      <c r="Q67" s="233"/>
-      <c r="R67" s="233"/>
-      <c r="S67" s="233"/>
-      <c r="T67" s="234"/>
+      <c r="C67" s="112"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="112"/>
+      <c r="H67" s="112"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="112"/>
+      <c r="K67" s="112"/>
+      <c r="L67" s="112"/>
+      <c r="M67" s="112"/>
+      <c r="N67" s="112"/>
+      <c r="O67" s="112"/>
+      <c r="P67" s="112"/>
+      <c r="Q67" s="112"/>
+      <c r="R67" s="112"/>
+      <c r="S67" s="112"/>
+      <c r="T67" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="218">
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="B67:T67"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="S64:T64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="S61:T61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="S62:T62"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:T57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:O58"/>
-    <mergeCell ref="Q58:T58"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="N59:T59"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="O55:T55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="O56:T56"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="O52:Q52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="O51:Q51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="O45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="L25:T25"/>
+    <mergeCell ref="Q1:T5"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B6:T6"/>
+    <mergeCell ref="B7:T7"/>
+    <mergeCell ref="B8:T8"/>
+    <mergeCell ref="B9:T9"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="M21:T21"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="M16:T16"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B10:T10"/>
+    <mergeCell ref="B11:T11"/>
+    <mergeCell ref="M14:T14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M15:T15"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:T28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:T29"/>
+    <mergeCell ref="M18:T18"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="M19:T19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="M20:T20"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="L26:T26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="E34:G34"/>
@@ -5815,54 +5849,152 @@
     <mergeCell ref="R35:T36"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:T28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:T29"/>
-    <mergeCell ref="M18:T18"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="M19:T19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="L26:T26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="L25:T25"/>
-    <mergeCell ref="Q1:T5"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="B6:T6"/>
-    <mergeCell ref="B7:T7"/>
-    <mergeCell ref="B8:T8"/>
-    <mergeCell ref="B9:T9"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="M21:T21"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="M16:T16"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B10:T10"/>
-    <mergeCell ref="B11:T11"/>
-    <mergeCell ref="M14:T14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="M15:T15"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="O45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:T57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:O58"/>
+    <mergeCell ref="Q58:T58"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="N59:T59"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="O55:T55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="O56:T56"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="B67:T67"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="Q65:R65"/>
   </mergeCells>
   <dataValidations count="34">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please Enter / Select a valid option from the List..." sqref="M18:T18" xr:uid="{92730EA2-2C4E-436F-A174-1DA7426AA1BE}">
@@ -6069,8 +6201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC067019-9E8F-42C6-9301-6F73926F5B81}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6080,11 +6212,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="294" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
       <c r="D1" s="52" t="s">
         <v>27</v>
       </c>
@@ -6108,11 +6240,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="288" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="239"/>
+      <c r="B2" s="289"/>
+      <c r="C2" s="290"/>
       <c r="D2" s="54" t="s">
         <v>518</v>
       </c>
@@ -6134,11 +6266,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="288" t="s">
         <v>522</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="239"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="290"/>
       <c r="D3" s="54" t="s">
         <v>519</v>
       </c>
@@ -6160,9 +6292,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="237"/>
-      <c r="B4" s="238"/>
-      <c r="C4" s="239"/>
+      <c r="A4" s="288"/>
+      <c r="B4" s="289"/>
+      <c r="C4" s="290"/>
       <c r="D4" s="54"/>
       <c r="E4" s="54"/>
       <c r="F4" s="55"/>
@@ -6172,9 +6304,9 @@
       <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="237"/>
-      <c r="B5" s="238"/>
-      <c r="C5" s="239"/>
+      <c r="A5" s="288"/>
+      <c r="B5" s="289"/>
+      <c r="C5" s="290"/>
       <c r="D5" s="54"/>
       <c r="E5" s="54"/>
       <c r="F5" s="55"/>
@@ -6184,9 +6316,9 @@
       <c r="J5" s="58"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="237"/>
-      <c r="B6" s="238"/>
-      <c r="C6" s="239"/>
+      <c r="A6" s="288"/>
+      <c r="B6" s="289"/>
+      <c r="C6" s="290"/>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
       <c r="F6" s="55"/>
@@ -6196,9 +6328,9 @@
       <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="237"/>
-      <c r="B7" s="238"/>
-      <c r="C7" s="239"/>
+      <c r="A7" s="288"/>
+      <c r="B7" s="289"/>
+      <c r="C7" s="290"/>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="55"/>
@@ -6208,9 +6340,9 @@
       <c r="J7" s="58"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="237"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="239"/>
+      <c r="A8" s="288"/>
+      <c r="B8" s="289"/>
+      <c r="C8" s="290"/>
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="55"/>
@@ -6220,9 +6352,9 @@
       <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="237"/>
-      <c r="B9" s="238"/>
-      <c r="C9" s="239"/>
+      <c r="A9" s="288"/>
+      <c r="B9" s="289"/>
+      <c r="C9" s="290"/>
       <c r="D9" s="54"/>
       <c r="E9" s="54"/>
       <c r="F9" s="55"/>
@@ -6232,9 +6364,9 @@
       <c r="J9" s="58"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="237"/>
-      <c r="B10" s="238"/>
-      <c r="C10" s="239"/>
+      <c r="A10" s="288"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="290"/>
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
       <c r="F10" s="55"/>
@@ -6244,9 +6376,9 @@
       <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="237"/>
-      <c r="B11" s="238"/>
-      <c r="C11" s="239"/>
+      <c r="A11" s="288"/>
+      <c r="B11" s="289"/>
+      <c r="C11" s="290"/>
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
       <c r="F11" s="55"/>
@@ -6256,9 +6388,9 @@
       <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="237"/>
-      <c r="B12" s="238"/>
-      <c r="C12" s="239"/>
+      <c r="A12" s="288"/>
+      <c r="B12" s="289"/>
+      <c r="C12" s="290"/>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
       <c r="F12" s="55"/>
@@ -6268,9 +6400,9 @@
       <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="237"/>
-      <c r="B13" s="238"/>
-      <c r="C13" s="239"/>
+      <c r="A13" s="288"/>
+      <c r="B13" s="289"/>
+      <c r="C13" s="290"/>
       <c r="D13" s="54"/>
       <c r="E13" s="54"/>
       <c r="F13" s="55"/>
@@ -6280,9 +6412,9 @@
       <c r="J13" s="58"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="237"/>
-      <c r="B14" s="238"/>
-      <c r="C14" s="239"/>
+      <c r="A14" s="288"/>
+      <c r="B14" s="289"/>
+      <c r="C14" s="290"/>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
       <c r="F14" s="55"/>
@@ -6292,9 +6424,9 @@
       <c r="J14" s="58"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="237"/>
-      <c r="B15" s="238"/>
-      <c r="C15" s="239"/>
+      <c r="A15" s="288"/>
+      <c r="B15" s="289"/>
+      <c r="C15" s="290"/>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
       <c r="F15" s="55"/>
@@ -6304,9 +6436,9 @@
       <c r="J15" s="58"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="237"/>
-      <c r="B16" s="238"/>
-      <c r="C16" s="239"/>
+      <c r="A16" s="288"/>
+      <c r="B16" s="289"/>
+      <c r="C16" s="290"/>
       <c r="D16" s="54"/>
       <c r="E16" s="54"/>
       <c r="F16" s="55"/>
@@ -6316,9 +6448,9 @@
       <c r="J16" s="58"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="237"/>
-      <c r="B17" s="238"/>
-      <c r="C17" s="239"/>
+      <c r="A17" s="288"/>
+      <c r="B17" s="289"/>
+      <c r="C17" s="290"/>
       <c r="D17" s="54"/>
       <c r="E17" s="54"/>
       <c r="F17" s="55"/>
@@ -6328,9 +6460,9 @@
       <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="237"/>
-      <c r="B18" s="238"/>
-      <c r="C18" s="239"/>
+      <c r="A18" s="288"/>
+      <c r="B18" s="289"/>
+      <c r="C18" s="290"/>
       <c r="D18" s="54"/>
       <c r="E18" s="54"/>
       <c r="F18" s="55"/>
@@ -6340,9 +6472,9 @@
       <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="237"/>
-      <c r="B19" s="238"/>
-      <c r="C19" s="239"/>
+      <c r="A19" s="288"/>
+      <c r="B19" s="289"/>
+      <c r="C19" s="290"/>
       <c r="D19" s="54"/>
       <c r="E19" s="54"/>
       <c r="F19" s="55"/>
@@ -6352,9 +6484,9 @@
       <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="237"/>
-      <c r="B20" s="238"/>
-      <c r="C20" s="239"/>
+      <c r="A20" s="288"/>
+      <c r="B20" s="289"/>
+      <c r="C20" s="290"/>
       <c r="D20" s="54"/>
       <c r="E20" s="54"/>
       <c r="F20" s="55"/>
@@ -6364,9 +6496,9 @@
       <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="237"/>
-      <c r="B21" s="238"/>
-      <c r="C21" s="239"/>
+      <c r="A21" s="288"/>
+      <c r="B21" s="289"/>
+      <c r="C21" s="290"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="55"/>
@@ -6376,9 +6508,9 @@
       <c r="J21" s="58"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="237"/>
-      <c r="B22" s="238"/>
-      <c r="C22" s="239"/>
+      <c r="A22" s="288"/>
+      <c r="B22" s="289"/>
+      <c r="C22" s="290"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
       <c r="F22" s="55"/>
@@ -6388,9 +6520,9 @@
       <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="237"/>
-      <c r="B23" s="238"/>
-      <c r="C23" s="239"/>
+      <c r="A23" s="288"/>
+      <c r="B23" s="289"/>
+      <c r="C23" s="290"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
       <c r="F23" s="55"/>
@@ -6400,9 +6532,9 @@
       <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="237"/>
-      <c r="B24" s="238"/>
-      <c r="C24" s="239"/>
+      <c r="A24" s="288"/>
+      <c r="B24" s="289"/>
+      <c r="C24" s="290"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="55"/>
@@ -6412,9 +6544,9 @@
       <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="237"/>
-      <c r="B25" s="238"/>
-      <c r="C25" s="239"/>
+      <c r="A25" s="288"/>
+      <c r="B25" s="289"/>
+      <c r="C25" s="290"/>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="55"/>
@@ -6424,9 +6556,9 @@
       <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="237"/>
-      <c r="B26" s="238"/>
-      <c r="C26" s="239"/>
+      <c r="A26" s="288"/>
+      <c r="B26" s="289"/>
+      <c r="C26" s="290"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
       <c r="F26" s="55"/>
@@ -6436,9 +6568,9 @@
       <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="237"/>
-      <c r="B27" s="238"/>
-      <c r="C27" s="239"/>
+      <c r="A27" s="288"/>
+      <c r="B27" s="289"/>
+      <c r="C27" s="290"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
       <c r="F27" s="55"/>
@@ -6448,9 +6580,9 @@
       <c r="J27" s="58"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="237"/>
-      <c r="B28" s="238"/>
-      <c r="C28" s="239"/>
+      <c r="A28" s="288"/>
+      <c r="B28" s="289"/>
+      <c r="C28" s="290"/>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
       <c r="F28" s="55"/>
@@ -6460,9 +6592,9 @@
       <c r="J28" s="58"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="237"/>
-      <c r="B29" s="238"/>
-      <c r="C29" s="239"/>
+      <c r="A29" s="288"/>
+      <c r="B29" s="289"/>
+      <c r="C29" s="290"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
       <c r="F29" s="55"/>
@@ -6472,9 +6604,9 @@
       <c r="J29" s="58"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="237"/>
-      <c r="B30" s="238"/>
-      <c r="C30" s="239"/>
+      <c r="A30" s="288"/>
+      <c r="B30" s="289"/>
+      <c r="C30" s="290"/>
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
       <c r="F30" s="55"/>
@@ -6484,9 +6616,9 @@
       <c r="J30" s="58"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="237"/>
-      <c r="B31" s="238"/>
-      <c r="C31" s="239"/>
+      <c r="A31" s="288"/>
+      <c r="B31" s="289"/>
+      <c r="C31" s="290"/>
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
       <c r="F31" s="55"/>
@@ -6496,9 +6628,9 @@
       <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="237"/>
-      <c r="B32" s="238"/>
-      <c r="C32" s="239"/>
+      <c r="A32" s="288"/>
+      <c r="B32" s="289"/>
+      <c r="C32" s="290"/>
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
       <c r="F32" s="55"/>
@@ -6508,9 +6640,9 @@
       <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="237"/>
-      <c r="B33" s="238"/>
-      <c r="C33" s="239"/>
+      <c r="A33" s="288"/>
+      <c r="B33" s="289"/>
+      <c r="C33" s="290"/>
       <c r="D33" s="54"/>
       <c r="E33" s="54"/>
       <c r="F33" s="55"/>
@@ -6520,9 +6652,9 @@
       <c r="J33" s="58"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="242"/>
-      <c r="B34" s="243"/>
-      <c r="C34" s="244"/>
+      <c r="A34" s="281"/>
+      <c r="B34" s="282"/>
+      <c r="C34" s="283"/>
       <c r="D34" s="54"/>
       <c r="E34" s="54"/>
       <c r="F34" s="55"/>
@@ -6532,9 +6664,9 @@
       <c r="J34" s="58"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="242"/>
-      <c r="B35" s="243"/>
-      <c r="C35" s="244"/>
+      <c r="A35" s="281"/>
+      <c r="B35" s="282"/>
+      <c r="C35" s="283"/>
       <c r="D35" s="54"/>
       <c r="E35" s="54"/>
       <c r="F35" s="55"/>
@@ -6544,9 +6676,9 @@
       <c r="J35" s="58"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="242"/>
-      <c r="B36" s="243"/>
-      <c r="C36" s="244"/>
+      <c r="A36" s="281"/>
+      <c r="B36" s="282"/>
+      <c r="C36" s="283"/>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
       <c r="F36" s="55"/>
@@ -6556,9 +6688,9 @@
       <c r="J36" s="58"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="242"/>
-      <c r="B37" s="243"/>
-      <c r="C37" s="244"/>
+      <c r="A37" s="281"/>
+      <c r="B37" s="282"/>
+      <c r="C37" s="283"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
       <c r="F37" s="55"/>
@@ -6568,9 +6700,9 @@
       <c r="J37" s="58"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="245"/>
-      <c r="B38" s="246"/>
-      <c r="C38" s="247"/>
+      <c r="A38" s="291"/>
+      <c r="B38" s="292"/>
+      <c r="C38" s="293"/>
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
       <c r="F38" s="61"/>
@@ -6581,69 +6713,69 @@
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="252" t="s">
+      <c r="A40" s="284" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="253"/>
-      <c r="C40" s="253"/>
+      <c r="B40" s="285"/>
+      <c r="C40" s="285"/>
       <c r="D40" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="240" t="s">
+      <c r="E40" s="286" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="241"/>
+      <c r="F40" s="287"/>
       <c r="G40" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="240" t="s">
+      <c r="H40" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="I40" s="241"/>
+      <c r="I40" s="287"/>
       <c r="J40" s="69" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="248" t="s">
+      <c r="A41" s="277" t="s">
         <v>163</v>
       </c>
-      <c r="B41" s="249"/>
-      <c r="C41" s="249"/>
+      <c r="B41" s="278"/>
+      <c r="C41" s="278"/>
       <c r="D41" s="54"/>
-      <c r="E41" s="250"/>
-      <c r="F41" s="251"/>
+      <c r="E41" s="275"/>
+      <c r="F41" s="276"/>
       <c r="G41" s="59"/>
-      <c r="H41" s="250"/>
-      <c r="I41" s="251"/>
+      <c r="H41" s="275"/>
+      <c r="I41" s="276"/>
       <c r="J41" s="70"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="248" t="s">
+      <c r="A42" s="277" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="249"/>
-      <c r="C42" s="249"/>
+      <c r="B42" s="278"/>
+      <c r="C42" s="278"/>
       <c r="D42" s="54"/>
-      <c r="E42" s="250"/>
-      <c r="F42" s="251"/>
+      <c r="E42" s="275"/>
+      <c r="F42" s="276"/>
       <c r="G42" s="59"/>
-      <c r="H42" s="250"/>
-      <c r="I42" s="251"/>
+      <c r="H42" s="275"/>
+      <c r="I42" s="276"/>
       <c r="J42" s="70"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="248" t="s">
+      <c r="A43" s="277" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="249"/>
-      <c r="C43" s="249"/>
+      <c r="B43" s="278"/>
+      <c r="C43" s="278"/>
       <c r="D43" s="60"/>
-      <c r="E43" s="267"/>
-      <c r="F43" s="268"/>
+      <c r="E43" s="279"/>
+      <c r="F43" s="280"/>
       <c r="G43" s="62"/>
-      <c r="H43" s="267"/>
-      <c r="I43" s="268"/>
+      <c r="H43" s="279"/>
+      <c r="I43" s="280"/>
       <c r="J43" s="71"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6659,66 +6791,78 @@
       <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="254" t="s">
+      <c r="A45" s="272" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="255"/>
-      <c r="C45" s="255"/>
-      <c r="D45" s="255"/>
-      <c r="E45" s="255"/>
-      <c r="F45" s="255"/>
-      <c r="G45" s="255"/>
-      <c r="H45" s="255"/>
-      <c r="I45" s="255"/>
-      <c r="J45" s="256"/>
+      <c r="B45" s="273"/>
+      <c r="C45" s="273"/>
+      <c r="D45" s="273"/>
+      <c r="E45" s="273"/>
+      <c r="F45" s="273"/>
+      <c r="G45" s="273"/>
+      <c r="H45" s="273"/>
+      <c r="I45" s="273"/>
+      <c r="J45" s="274"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="257" t="s">
+      <c r="A46" s="250" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="258"/>
-      <c r="C46" s="258"/>
-      <c r="D46" s="258"/>
-      <c r="E46" s="259"/>
+      <c r="B46" s="251"/>
+      <c r="C46" s="251"/>
+      <c r="D46" s="251"/>
+      <c r="E46" s="252"/>
       <c r="F46" s="72" t="s">
         <v>145</v>
       </c>
       <c r="G46" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="H46" s="260" t="s">
+      <c r="H46" s="253" t="s">
         <v>147</v>
       </c>
-      <c r="I46" s="260"/>
-      <c r="J46" s="261"/>
+      <c r="I46" s="253"/>
+      <c r="J46" s="254"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="262"/>
-      <c r="B47" s="263"/>
-      <c r="C47" s="263"/>
-      <c r="D47" s="263"/>
-      <c r="E47" s="264"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="265" t="s">
+      <c r="A47" s="255" t="s">
+        <v>523</v>
+      </c>
+      <c r="B47" s="256"/>
+      <c r="C47" s="256"/>
+      <c r="D47" s="256"/>
+      <c r="E47" s="257"/>
+      <c r="F47" s="55">
+        <v>36912</v>
+      </c>
+      <c r="G47" s="59">
+        <v>37642</v>
+      </c>
+      <c r="H47" s="258" t="s">
         <v>167</v>
       </c>
-      <c r="I47" s="265"/>
-      <c r="J47" s="266"/>
+      <c r="I47" s="258"/>
+      <c r="J47" s="259"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="269"/>
+      <c r="A48" s="269" t="s">
+        <v>524</v>
+      </c>
       <c r="B48" s="270"/>
       <c r="C48" s="270"/>
       <c r="D48" s="270"/>
       <c r="E48" s="271"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="265" t="s">
+      <c r="F48" s="61">
+        <v>32894</v>
+      </c>
+      <c r="G48" s="62">
+        <v>36546</v>
+      </c>
+      <c r="H48" s="258" t="s">
         <v>165</v>
       </c>
-      <c r="I48" s="265"/>
-      <c r="J48" s="266"/>
+      <c r="I48" s="258"/>
+      <c r="J48" s="259"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
@@ -6733,52 +6877,52 @@
       <c r="J49" s="24"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="254" t="s">
+      <c r="A50" s="272" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="255"/>
-      <c r="C50" s="255"/>
-      <c r="D50" s="255"/>
-      <c r="E50" s="255"/>
-      <c r="F50" s="255"/>
-      <c r="G50" s="255"/>
-      <c r="H50" s="255"/>
-      <c r="I50" s="255"/>
-      <c r="J50" s="256"/>
+      <c r="B50" s="273"/>
+      <c r="C50" s="273"/>
+      <c r="D50" s="273"/>
+      <c r="E50" s="273"/>
+      <c r="F50" s="273"/>
+      <c r="G50" s="273"/>
+      <c r="H50" s="273"/>
+      <c r="I50" s="273"/>
+      <c r="J50" s="274"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="257" t="s">
+      <c r="A51" s="250" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="258"/>
-      <c r="C51" s="258"/>
-      <c r="D51" s="258"/>
-      <c r="E51" s="259"/>
+      <c r="B51" s="251"/>
+      <c r="C51" s="251"/>
+      <c r="D51" s="251"/>
+      <c r="E51" s="252"/>
       <c r="F51" s="72" t="s">
         <v>145</v>
       </c>
       <c r="G51" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="H51" s="260" t="s">
+      <c r="H51" s="253" t="s">
         <v>147</v>
       </c>
-      <c r="I51" s="260"/>
-      <c r="J51" s="261"/>
+      <c r="I51" s="253"/>
+      <c r="J51" s="254"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="262"/>
-      <c r="B52" s="263"/>
-      <c r="C52" s="263"/>
-      <c r="D52" s="263"/>
-      <c r="E52" s="264"/>
+      <c r="A52" s="255"/>
+      <c r="B52" s="256"/>
+      <c r="C52" s="256"/>
+      <c r="D52" s="256"/>
+      <c r="E52" s="257"/>
       <c r="F52" s="55"/>
       <c r="G52" s="59"/>
-      <c r="H52" s="265" t="s">
+      <c r="H52" s="258" t="s">
         <v>167</v>
       </c>
-      <c r="I52" s="265"/>
-      <c r="J52" s="266"/>
+      <c r="I52" s="258"/>
+      <c r="J52" s="259"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="269"/>
@@ -6788,11 +6932,11 @@
       <c r="E53" s="271"/>
       <c r="F53" s="61"/>
       <c r="G53" s="62"/>
-      <c r="H53" s="265" t="s">
+      <c r="H53" s="258" t="s">
         <v>165</v>
       </c>
-      <c r="I53" s="265"/>
-      <c r="J53" s="266"/>
+      <c r="I53" s="258"/>
+      <c r="J53" s="259"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
@@ -6807,209 +6951,267 @@
       <c r="J54" s="24"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="254" t="s">
+      <c r="A55" s="272" t="s">
         <v>150</v>
       </c>
-      <c r="B55" s="255"/>
-      <c r="C55" s="255"/>
-      <c r="D55" s="255"/>
-      <c r="E55" s="255"/>
-      <c r="F55" s="255"/>
-      <c r="G55" s="255"/>
-      <c r="H55" s="255"/>
-      <c r="I55" s="255"/>
-      <c r="J55" s="256"/>
+      <c r="B55" s="273"/>
+      <c r="C55" s="273"/>
+      <c r="D55" s="273"/>
+      <c r="E55" s="273"/>
+      <c r="F55" s="273"/>
+      <c r="G55" s="273"/>
+      <c r="H55" s="273"/>
+      <c r="I55" s="273"/>
+      <c r="J55" s="274"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="281" t="s">
+      <c r="A56" s="243" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="282"/>
-      <c r="C56" s="282"/>
-      <c r="D56" s="282"/>
-      <c r="E56" s="282"/>
-      <c r="F56" s="282"/>
-      <c r="G56" s="282"/>
-      <c r="H56" s="286"/>
-      <c r="I56" s="286"/>
-      <c r="J56" s="287"/>
+      <c r="B56" s="241"/>
+      <c r="C56" s="241"/>
+      <c r="D56" s="241"/>
+      <c r="E56" s="241"/>
+      <c r="F56" s="241"/>
+      <c r="G56" s="241"/>
+      <c r="H56" s="238"/>
+      <c r="I56" s="238"/>
+      <c r="J56" s="239"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="274"/>
-      <c r="B57" s="272"/>
-      <c r="C57" s="272"/>
-      <c r="D57" s="272"/>
-      <c r="E57" s="272"/>
-      <c r="F57" s="272"/>
-      <c r="G57" s="272"/>
-      <c r="H57" s="272"/>
-      <c r="I57" s="272"/>
-      <c r="J57" s="273"/>
+      <c r="A57" s="262"/>
+      <c r="B57" s="260"/>
+      <c r="C57" s="260"/>
+      <c r="D57" s="260"/>
+      <c r="E57" s="260"/>
+      <c r="F57" s="260"/>
+      <c r="G57" s="260"/>
+      <c r="H57" s="260"/>
+      <c r="I57" s="260"/>
+      <c r="J57" s="261"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="274" t="s">
+      <c r="A58" s="262" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="272"/>
-      <c r="C58" s="272"/>
-      <c r="D58" s="272"/>
-      <c r="E58" s="272"/>
-      <c r="F58" s="272"/>
-      <c r="G58" s="275" t="s">
+      <c r="B58" s="260"/>
+      <c r="C58" s="260"/>
+      <c r="D58" s="260"/>
+      <c r="E58" s="260"/>
+      <c r="F58" s="260"/>
+      <c r="G58" s="263" t="s">
         <v>153</v>
       </c>
-      <c r="H58" s="275"/>
-      <c r="I58" s="275"/>
-      <c r="J58" s="276"/>
+      <c r="H58" s="263"/>
+      <c r="I58" s="263"/>
+      <c r="J58" s="264"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="277"/>
-      <c r="B59" s="278"/>
-      <c r="C59" s="278"/>
-      <c r="D59" s="278"/>
-      <c r="E59" s="278"/>
-      <c r="F59" s="278"/>
-      <c r="G59" s="279"/>
-      <c r="H59" s="279"/>
-      <c r="I59" s="279"/>
-      <c r="J59" s="280"/>
+      <c r="A59" s="265"/>
+      <c r="B59" s="266"/>
+      <c r="C59" s="266"/>
+      <c r="D59" s="266"/>
+      <c r="E59" s="266"/>
+      <c r="F59" s="266"/>
+      <c r="G59" s="267"/>
+      <c r="H59" s="267"/>
+      <c r="I59" s="267"/>
+      <c r="J59" s="268"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="274"/>
-      <c r="B60" s="272"/>
-      <c r="C60" s="272"/>
-      <c r="D60" s="272"/>
-      <c r="E60" s="272"/>
-      <c r="F60" s="272"/>
-      <c r="G60" s="272"/>
-      <c r="H60" s="272"/>
-      <c r="I60" s="272"/>
-      <c r="J60" s="273"/>
+      <c r="A60" s="262"/>
+      <c r="B60" s="260"/>
+      <c r="C60" s="260"/>
+      <c r="D60" s="260"/>
+      <c r="E60" s="260"/>
+      <c r="F60" s="260"/>
+      <c r="G60" s="260"/>
+      <c r="H60" s="260"/>
+      <c r="I60" s="260"/>
+      <c r="J60" s="261"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="274" t="s">
+      <c r="A61" s="262" t="s">
         <v>154</v>
       </c>
-      <c r="B61" s="272"/>
-      <c r="C61" s="272"/>
-      <c r="D61" s="272"/>
-      <c r="E61" s="272"/>
-      <c r="F61" s="272"/>
-      <c r="G61" s="272"/>
-      <c r="H61" s="272"/>
-      <c r="I61" s="272"/>
-      <c r="J61" s="273"/>
+      <c r="B61" s="260"/>
+      <c r="C61" s="260"/>
+      <c r="D61" s="260"/>
+      <c r="E61" s="260"/>
+      <c r="F61" s="260"/>
+      <c r="G61" s="260"/>
+      <c r="H61" s="260"/>
+      <c r="I61" s="260"/>
+      <c r="J61" s="261"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="288"/>
-      <c r="B62" s="282"/>
-      <c r="C62" s="282"/>
-      <c r="D62" s="282"/>
-      <c r="E62" s="282"/>
-      <c r="F62" s="282"/>
-      <c r="G62" s="282"/>
-      <c r="H62" s="282"/>
-      <c r="I62" s="282"/>
-      <c r="J62" s="289"/>
+      <c r="A62" s="240"/>
+      <c r="B62" s="241"/>
+      <c r="C62" s="241"/>
+      <c r="D62" s="241"/>
+      <c r="E62" s="241"/>
+      <c r="F62" s="241"/>
+      <c r="G62" s="241"/>
+      <c r="H62" s="241"/>
+      <c r="I62" s="241"/>
+      <c r="J62" s="242"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="288"/>
-      <c r="B63" s="282"/>
-      <c r="C63" s="282"/>
-      <c r="D63" s="282"/>
-      <c r="E63" s="282"/>
-      <c r="F63" s="282"/>
-      <c r="G63" s="282"/>
-      <c r="H63" s="282"/>
-      <c r="I63" s="282"/>
-      <c r="J63" s="289"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="281" t="s">
+      <c r="A63" s="240"/>
+      <c r="B63" s="241"/>
+      <c r="C63" s="241"/>
+      <c r="D63" s="241"/>
+      <c r="E63" s="241"/>
+      <c r="F63" s="241"/>
+      <c r="G63" s="241"/>
+      <c r="H63" s="241"/>
+      <c r="I63" s="241"/>
+      <c r="J63" s="242"/>
+    </row>
+    <row r="64" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="243" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="282"/>
-      <c r="C64" s="282"/>
-      <c r="D64" s="282"/>
-      <c r="E64" s="282"/>
-      <c r="F64" s="282"/>
-      <c r="G64" s="282"/>
-      <c r="H64" s="286"/>
-      <c r="I64" s="286"/>
-      <c r="J64" s="287"/>
+      <c r="B64" s="241"/>
+      <c r="C64" s="241"/>
+      <c r="D64" s="241"/>
+      <c r="E64" s="241"/>
+      <c r="F64" s="241"/>
+      <c r="G64" s="241"/>
+      <c r="H64" s="238" t="s">
+        <v>490</v>
+      </c>
+      <c r="I64" s="238"/>
+      <c r="J64" s="239"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="281" t="s">
+      <c r="A65" s="243" t="s">
         <v>156</v>
       </c>
-      <c r="B65" s="282"/>
-      <c r="C65" s="282"/>
-      <c r="D65" s="282"/>
-      <c r="E65" s="282"/>
-      <c r="F65" s="282"/>
-      <c r="G65" s="282"/>
-      <c r="H65" s="286"/>
-      <c r="I65" s="286"/>
-      <c r="J65" s="287"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="290"/>
-      <c r="B66" s="291"/>
-      <c r="C66" s="291"/>
-      <c r="D66" s="291"/>
-      <c r="E66" s="291"/>
-      <c r="F66" s="291"/>
-      <c r="G66" s="291"/>
-      <c r="H66" s="291"/>
-      <c r="I66" s="291"/>
-      <c r="J66" s="292"/>
+      <c r="B65" s="241"/>
+      <c r="C65" s="241"/>
+      <c r="D65" s="241"/>
+      <c r="E65" s="241"/>
+      <c r="F65" s="241"/>
+      <c r="G65" s="241"/>
+      <c r="H65" s="238" t="s">
+        <v>96</v>
+      </c>
+      <c r="I65" s="238"/>
+      <c r="J65" s="239"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="244"/>
+      <c r="B66" s="245"/>
+      <c r="C66" s="245"/>
+      <c r="D66" s="245"/>
+      <c r="E66" s="245"/>
+      <c r="F66" s="245"/>
+      <c r="G66" s="245"/>
+      <c r="H66" s="245"/>
+      <c r="I66" s="245"/>
+      <c r="J66" s="246"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="281" t="s">
+      <c r="A67" s="247" t="s">
         <v>157</v>
       </c>
-      <c r="B67" s="293"/>
-      <c r="C67" s="293"/>
-      <c r="D67" s="293"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="282" t="s">
+      <c r="B67" s="248"/>
+      <c r="C67" s="248"/>
+      <c r="D67" s="248"/>
+      <c r="E67" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="249" t="s">
         <v>158</v>
       </c>
-      <c r="G67" s="282"/>
-      <c r="H67" s="282"/>
-      <c r="I67" s="282"/>
-      <c r="J67" s="75"/>
+      <c r="G67" s="249"/>
+      <c r="H67" s="249"/>
+      <c r="I67" s="249"/>
+      <c r="J67" s="107" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="283" t="s">
+      <c r="A68" s="235" t="s">
         <v>159</v>
       </c>
-      <c r="B68" s="284"/>
-      <c r="C68" s="284"/>
-      <c r="D68" s="284"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="285" t="s">
+      <c r="B68" s="236"/>
+      <c r="C68" s="236"/>
+      <c r="D68" s="236"/>
+      <c r="E68" s="108" t="s">
+        <v>490</v>
+      </c>
+      <c r="F68" s="237" t="s">
         <v>160</v>
       </c>
-      <c r="G68" s="285"/>
-      <c r="H68" s="285"/>
-      <c r="I68" s="285"/>
-      <c r="J68" s="77"/>
+      <c r="G68" s="237"/>
+      <c r="H68" s="237"/>
+      <c r="I68" s="237"/>
+      <c r="J68" s="109" t="s">
+        <v>490</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="H48:J48"/>
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="A52:E52"/>
@@ -7026,66 +7228,20 @@
     <mergeCell ref="H53:J53"/>
     <mergeCell ref="A55:J55"/>
     <mergeCell ref="A56:G56"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="H64:J64"/>
   </mergeCells>
-  <dataValidations count="42">
+  <dataValidations count="41">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please check the Date entered. Date format has to be DD-MMM-YY, e.g. 31-Jan-08..." promptTitle="Date Format" prompt="Please Enter Date in DD-MM-YYYY Format !!!" sqref="F2:G38" xr:uid="{1C93B122-105A-4AFF-BF81-27E0912B3B72}">
       <formula1>1</formula1>
     </dataValidation>
@@ -7207,9 +7363,6 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Rank" error="Please Enter / Select a valid Opion from the List..." sqref="H56:J56" xr:uid="{54388C12-51F6-4637-8F72-89693D82C7A2}">
       <formula1>$IM$65525:$IV$65526</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please Select a valid Option from the List..." sqref="E67:E68 H64:J65 J67:J68" xr:uid="{C6DDDD04-A8D2-4AE7-A461-AFDDEE2D80DE}">
-      <formula1>$IM$65525:$IM$65526</formula1>
-    </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please check the Date entered. Date format has to be DD-MMM-YY, e.g. 31-Jan-08..." sqref="J41:J43 G41:G43" xr:uid="{647C47BE-46C9-4614-A9E0-EBFFA5D6CAAC}">
       <formula1>1</formula1>
     </dataValidation>
@@ -7217,12 +7370,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please Select a valid Option from the List..." xr:uid="{C6DDDD04-A8D2-4AE7-A461-AFDDEE2D80DE}">
+          <x14:formula1>
+            <xm:f>'Data Values'!$L$2:$L$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H64:J65 E67:E68 J67:J68</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{24CB796B-9142-465D-A1BA-C635846241D1}">
           <x14:formula1>
             <xm:f>'Data Values'!$D$2:$D$11</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:C33 A2:C2</xm:sqref>
+          <xm:sqref>A2:C33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Entry..." error="Please Enter / Select a valid Entry from the List..." xr:uid="{68167FCA-6055-4595-B83C-01DA0F56BBFD}">
           <x14:formula1>
@@ -7246,1118 +7405,1161 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11292C7-7A77-410F-B664-D642BCB1ABD9}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="294" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="296" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
-      <c r="N1" s="294"/>
-      <c r="O1" s="294"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
+      <c r="N1" s="296"/>
+      <c r="O1" s="296"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="294"/>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="294"/>
-      <c r="I2" s="294"/>
-      <c r="J2" s="294"/>
-      <c r="K2" s="294"/>
-      <c r="L2" s="294"/>
-      <c r="M2" s="294"/>
-      <c r="N2" s="294"/>
-      <c r="O2" s="294"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="296"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="296"/>
+      <c r="L2" s="296"/>
+      <c r="M2" s="296"/>
+      <c r="N2" s="296"/>
+      <c r="O2" s="296"/>
     </row>
     <row r="3" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="J3" s="80" t="s">
+      <c r="J3" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="K3" s="80" t="s">
+      <c r="K3" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="L3" s="80" t="s">
+      <c r="L3" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="M3" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="N3" s="80" t="s">
+      <c r="N3" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="O3" s="82" t="s">
+      <c r="O3" s="78" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="83">
+    <row r="4" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="A4" s="79">
         <v>1</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90" t="str">
-        <f t="shared" ref="N4:N48" si="0">IF(OR(L4="",M4=""),"",DiffDate(L4,M4))</f>
-        <v/>
-      </c>
-      <c r="O4" s="91"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="83">
+      <c r="B4" s="80" t="s">
+        <v>525</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>463</v>
+      </c>
+      <c r="G4" s="83">
+        <v>200</v>
+      </c>
+      <c r="H4" s="83">
+        <v>200</v>
+      </c>
+      <c r="I4" s="84">
+        <v>100</v>
+      </c>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="85">
+        <v>40199</v>
+      </c>
+      <c r="M4" s="85">
+        <v>42756</v>
+      </c>
+      <c r="N4" s="86" t="e">
+        <f ca="1">IF(OR(L4="",M4=""),"",DiffDate(L4,M4))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O4" s="87"/>
+    </row>
+    <row r="5" spans="1:15" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="90" t="str">
+      <c r="B5" s="80" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>457</v>
+      </c>
+      <c r="G5" s="83">
+        <v>100</v>
+      </c>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="85">
+        <v>42787</v>
+      </c>
+      <c r="M5" s="85">
+        <v>43121</v>
+      </c>
+      <c r="N5" s="86" t="e">
+        <f t="shared" ref="N4:N48" ca="1" si="0">IF(OR(L5="",M5=""),"",DiffDate(L5,M5))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O5" s="87"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="79">
+        <v>3</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O5" s="91"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="83">
-        <v>3</v>
-      </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="90" t="str">
+      <c r="O6" s="87"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="79">
+        <v>4</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O6" s="91"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="83">
-        <v>4</v>
-      </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="90" t="str">
+      <c r="O7" s="87"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="79">
+        <v>5</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O7" s="91"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="83">
-        <v>5</v>
-      </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="90" t="str">
+      <c r="O8" s="87"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="79">
+        <v>6</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O8" s="91"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="83">
-        <v>6</v>
-      </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="90" t="str">
+      <c r="O9" s="87"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="79">
+        <v>7</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O9" s="91"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="83">
-        <v>7</v>
-      </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="90" t="str">
+      <c r="O10" s="87"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="79">
+        <v>8</v>
+      </c>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O10" s="91"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="83">
-        <v>8</v>
-      </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="90" t="str">
+      <c r="O11" s="87"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="79">
+        <v>9</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O11" s="91"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="83">
-        <v>9</v>
-      </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="90" t="str">
+      <c r="O12" s="87"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="79">
+        <v>10</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O12" s="91"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="83">
-        <v>10</v>
-      </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="90" t="str">
+      <c r="O13" s="87"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="79">
+        <v>11</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O13" s="91"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="83">
-        <v>11</v>
-      </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="90" t="str">
+      <c r="O14" s="87"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="79">
+        <v>12</v>
+      </c>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O14" s="91"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="83">
-        <v>12</v>
-      </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="90" t="str">
+      <c r="O15" s="87"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="79">
+        <v>13</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O15" s="91"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="83">
-        <v>13</v>
-      </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="90" t="str">
+      <c r="O16" s="87"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="79">
+        <v>14</v>
+      </c>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O16" s="91"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="83">
-        <v>14</v>
-      </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="90" t="str">
+      <c r="O17" s="87"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="79">
+        <v>15</v>
+      </c>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O17" s="91"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="83">
-        <v>15</v>
-      </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="90" t="str">
+      <c r="O18" s="87"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="79">
+        <v>16</v>
+      </c>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O18" s="91"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="83">
-        <v>16</v>
-      </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="90" t="str">
+      <c r="O19" s="87"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="79">
+        <v>17</v>
+      </c>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O19" s="91"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="83">
-        <v>17</v>
-      </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="90" t="str">
+      <c r="O20" s="87"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="79">
+        <v>18</v>
+      </c>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O20" s="91"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="83">
-        <v>18</v>
-      </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="90" t="str">
+      <c r="O21" s="87"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="79">
+        <v>19</v>
+      </c>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O21" s="91"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="83">
-        <v>19</v>
-      </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="90" t="str">
+      <c r="O22" s="87"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="79">
+        <v>20</v>
+      </c>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O22" s="91"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="83">
-        <v>20</v>
-      </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="90" t="str">
+      <c r="O23" s="87"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="79">
+        <v>21</v>
+      </c>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O23" s="91"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="83">
-        <v>21</v>
-      </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="90" t="str">
+      <c r="O24" s="87"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="79">
+        <v>22</v>
+      </c>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O24" s="91"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="83">
-        <v>22</v>
-      </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="90" t="str">
+      <c r="O25" s="87"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="79">
+        <v>23</v>
+      </c>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O25" s="91"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="83">
-        <v>23</v>
-      </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="90" t="str">
+      <c r="O26" s="87"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="79">
+        <v>24</v>
+      </c>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O26" s="91"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="83">
-        <v>24</v>
-      </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="90" t="str">
+      <c r="O27" s="87"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="90">
+        <v>25</v>
+      </c>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="96" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O27" s="91"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="94">
-        <v>25</v>
-      </c>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="100" t="str">
+      <c r="O28" s="87"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="97">
+        <v>26</v>
+      </c>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="103" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O28" s="91"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="101">
-        <v>26</v>
-      </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107" t="str">
+      <c r="O29" s="87"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="79">
+        <v>27</v>
+      </c>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O29" s="91"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="83">
-        <v>27</v>
-      </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="90" t="str">
+      <c r="O30" s="87"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="79">
+        <v>28</v>
+      </c>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O30" s="91"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="83">
-        <v>28</v>
-      </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="90" t="str">
+      <c r="O31" s="87"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="79">
+        <v>29</v>
+      </c>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O31" s="91"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="83">
-        <v>29</v>
-      </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="90" t="str">
+      <c r="O32" s="87"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="79">
+        <v>30</v>
+      </c>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O32" s="91"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="83">
-        <v>30</v>
-      </c>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="90" t="str">
+      <c r="O33" s="87"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="79">
+        <v>31</v>
+      </c>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O33" s="91"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="83">
-        <v>31</v>
-      </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="90" t="str">
+      <c r="O34" s="87"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="79">
+        <v>32</v>
+      </c>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O34" s="91"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="83">
-        <v>32</v>
-      </c>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="90" t="str">
+      <c r="O35" s="87"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="79">
+        <v>33</v>
+      </c>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O35" s="91"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="83">
-        <v>33</v>
-      </c>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="90" t="str">
+      <c r="O36" s="87"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="79">
+        <v>34</v>
+      </c>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O36" s="91"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="83">
-        <v>34</v>
-      </c>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="90" t="str">
+      <c r="O37" s="87"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="79">
+        <v>35</v>
+      </c>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O37" s="91"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="83">
-        <v>35</v>
-      </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="90" t="str">
+      <c r="O38" s="87"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="79">
+        <v>36</v>
+      </c>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O38" s="91"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="83">
-        <v>36</v>
-      </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="90" t="str">
+      <c r="O39" s="87"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="79">
+        <v>37</v>
+      </c>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O39" s="91"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="83">
-        <v>37</v>
-      </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="90" t="str">
+      <c r="O40" s="87"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="79">
+        <v>38</v>
+      </c>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O40" s="91"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="83">
-        <v>38</v>
-      </c>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="90" t="str">
+      <c r="O41" s="87"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="79">
+        <v>39</v>
+      </c>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O41" s="91"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="83">
-        <v>39</v>
-      </c>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="90" t="str">
+      <c r="O42" s="87"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="79">
+        <v>40</v>
+      </c>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O42" s="91"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="83">
-        <v>40</v>
-      </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="90" t="str">
+      <c r="O43" s="87"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="79">
+        <v>41</v>
+      </c>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O43" s="91"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="83">
-        <v>41</v>
-      </c>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="90" t="str">
+      <c r="O44" s="87"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="79">
+        <v>42</v>
+      </c>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O44" s="91"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="83">
-        <v>42</v>
-      </c>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="90" t="str">
+      <c r="O45" s="87"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="79">
+        <v>43</v>
+      </c>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O45" s="91"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="83">
-        <v>43</v>
-      </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="90" t="str">
+      <c r="O46" s="87"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="79">
+        <v>44</v>
+      </c>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="86" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O46" s="91"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="83">
-        <v>44</v>
-      </c>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="90" t="str">
+      <c r="O47" s="87"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="90">
+        <v>45</v>
+      </c>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="95"/>
+      <c r="N48" s="96" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O47" s="91"/>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="94">
-        <v>45</v>
-      </c>
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="99"/>
-      <c r="M48" s="99"/>
-      <c r="N48" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O48" s="91"/>
+      <c r="O48" s="87"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
+      <c r="A49" s="74"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="295" t="s">
+      <c r="A50" s="74"/>
+      <c r="B50" s="297" t="s">
         <v>182</v>
       </c>
-      <c r="C50" s="295"/>
-      <c r="D50" s="295"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
+      <c r="C50" s="297"/>
+      <c r="D50" s="297"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8375,6 +8577,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="N4" evalError="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -8412,7 +8617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA16C4FC-E745-4179-A969-B63C9D20A853}">
   <dimension ref="A1:L263"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
